--- a/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>134082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117614</v>
+        <v>118597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151716</v>
+        <v>151432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5061576351459209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4439919922152594</v>
+        <v>0.447701592384643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5727288494415177</v>
+        <v>0.5716539583144032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -764,19 +764,19 @@
         <v>67593</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55592</v>
+        <v>55370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81524</v>
+        <v>80125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.429810301210803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3534960454206427</v>
+        <v>0.3520835124473754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5183910626894673</v>
+        <v>0.509496776126635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -785,19 +785,19 @@
         <v>201675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179393</v>
+        <v>182024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221777</v>
+        <v>221802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4777170550578637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.424936422561193</v>
+        <v>0.4311684789964786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5253333353527549</v>
+        <v>0.5253940891374979</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>54858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41810</v>
+        <v>41170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69537</v>
+        <v>68098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2070905320460126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1578308863168537</v>
+        <v>0.1554180385783887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2625010359302899</v>
+        <v>0.2570682548326693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -835,19 +835,19 @@
         <v>45629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34938</v>
+        <v>34285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57963</v>
+        <v>57707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2901416041516214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2221619139726206</v>
+        <v>0.2180117795897121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3685704903234738</v>
+        <v>0.3669446655707281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -856,19 +856,19 @@
         <v>100487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84236</v>
+        <v>83512</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121219</v>
+        <v>119356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2380283598112348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1995343623413291</v>
+        <v>0.1978181517362401</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2871380483896275</v>
+        <v>0.2827238269844641</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>75961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62383</v>
+        <v>60860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92817</v>
+        <v>90288</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2867518328080665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2354967274010039</v>
+        <v>0.2297451979143287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3503827971009439</v>
+        <v>0.3408368912042652</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -906,19 +906,19 @@
         <v>44041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33087</v>
+        <v>33575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57344</v>
+        <v>55966</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2800480946375756</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2103941985583584</v>
+        <v>0.2134949265127218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3646377452378477</v>
+        <v>0.3558774980525125</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>112</v>
@@ -927,19 +927,19 @@
         <v>120002</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101650</v>
+        <v>102027</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>139479</v>
+        <v>141190</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2842545851309015</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2407837441364773</v>
+        <v>0.2416761765420742</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3303902071165572</v>
+        <v>0.3344432661672466</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>239266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>219852</v>
+        <v>219020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259933</v>
+        <v>259449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5972865434281462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5488220048692108</v>
+        <v>0.5467451406744535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6488794917337481</v>
+        <v>0.6476700781673124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -1052,19 +1052,19 @@
         <v>143133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>127771</v>
+        <v>126110</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159129</v>
+        <v>160540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5420619306984561</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4838841666661238</v>
+        <v>0.4775972079315424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6026431792613939</v>
+        <v>0.6079869855950375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>350</v>
@@ -1073,19 +1073,19 @@
         <v>382398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354582</v>
+        <v>355208</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>408823</v>
+        <v>408615</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5753465637026121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5334950455858289</v>
+        <v>0.5344373508007977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6151036995644041</v>
+        <v>0.6147913867116522</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>72122</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57478</v>
+        <v>56662</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88178</v>
+        <v>90001</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1800410543132422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1434844245326232</v>
+        <v>0.1414462165491929</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2201218546937422</v>
+        <v>0.2246723775187112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -1123,19 +1123,19 @@
         <v>56424</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42817</v>
+        <v>43870</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71400</v>
+        <v>72612</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2136853185861028</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1621527279266956</v>
+        <v>0.1661419380915918</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2704013345409431</v>
+        <v>0.2749897824716389</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>119</v>
@@ -1144,19 +1144,19 @@
         <v>128546</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>107918</v>
+        <v>109034</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>150154</v>
+        <v>149911</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1934074581600224</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1623707185641383</v>
+        <v>0.1640500133954073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2259183827879667</v>
+        <v>0.2255516147923119</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>89200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72093</v>
+        <v>72235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107824</v>
+        <v>105199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2226724022586115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1799669806480915</v>
+        <v>0.1803231738213949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2691649751499308</v>
+        <v>0.2626123003921643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1194,19 +1194,19 @@
         <v>64495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51454</v>
+        <v>49790</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80684</v>
+        <v>79741</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2442527507154411</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.194862734428183</v>
+        <v>0.188561889416372</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3055628269710115</v>
+        <v>0.3019883164193726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -1215,19 +1215,19 @@
         <v>153695</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132763</v>
+        <v>131791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180464</v>
+        <v>177113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2312459781373656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1997509945526982</v>
+        <v>0.1982889346737947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2715210577521221</v>
+        <v>0.2664790699266967</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>189143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>170141</v>
+        <v>170214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>207084</v>
+        <v>206787</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5975584537139497</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5375247088190434</v>
+        <v>0.53775656692971</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6542403957182861</v>
+        <v>0.6533003414344607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1340,19 +1340,19 @@
         <v>130633</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114644</v>
+        <v>115883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145278</v>
+        <v>146058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6250257453892103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5485255968580928</v>
+        <v>0.5544523883802035</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6950979918446601</v>
+        <v>0.6988265915137383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>291</v>
@@ -1361,19 +1361,19 @@
         <v>319775</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>291913</v>
+        <v>295781</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341292</v>
+        <v>344099</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6084822329850055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5554654449785472</v>
+        <v>0.5628252824490202</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6494264800960586</v>
+        <v>0.6547660616181826</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>66925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52218</v>
+        <v>52524</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84597</v>
+        <v>84502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2114356646195106</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.16497292715808</v>
+        <v>0.1659385902195414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2672684597853273</v>
+        <v>0.2669684114360726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1411,19 +1411,19 @@
         <v>37227</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26524</v>
+        <v>26641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49944</v>
+        <v>50592</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1781161033564474</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1269055735272079</v>
+        <v>0.1274661888939982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2389639267120817</v>
+        <v>0.2420631216946029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -1432,19 +1432,19 @@
         <v>104152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88187</v>
+        <v>86494</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126086</v>
+        <v>127130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1981844297708286</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1678060184147433</v>
+        <v>0.1645847919993231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2399212872849628</v>
+        <v>0.2419080976215424</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>60458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47135</v>
+        <v>47249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78553</v>
+        <v>75732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1910058816665398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1489142132819594</v>
+        <v>0.1492749518687989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2481729175510808</v>
+        <v>0.2392591832040237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1482,19 +1482,19 @@
         <v>41144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29933</v>
+        <v>30828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55714</v>
+        <v>54593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1968581512543423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1432172513299919</v>
+        <v>0.147499252386038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2665678575635635</v>
+        <v>0.261207876472058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1503,19 +1503,19 @@
         <v>101602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84405</v>
+        <v>82107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121340</v>
+        <v>121633</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1933333372441659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1606105044076134</v>
+        <v>0.1562360989103363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.230890539169549</v>
+        <v>0.2314480032503481</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>247517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>227892</v>
+        <v>228125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>269696</v>
+        <v>266071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6069487260757809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5588258941461944</v>
+        <v>0.5593977932638742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6613348507765435</v>
+        <v>0.6524461764389762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>154</v>
@@ -1628,19 +1628,19 @@
         <v>161721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>143693</v>
+        <v>143928</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178406</v>
+        <v>180097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5470439077399931</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4860603865991554</v>
+        <v>0.4868561377023241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6034807942949222</v>
+        <v>0.6092025677864118</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -1649,19 +1649,19 @@
         <v>409238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>378973</v>
+        <v>382496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>432753</v>
+        <v>435958</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5817728775066122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.53874737522975</v>
+        <v>0.5437566694330203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6152014503463547</v>
+        <v>0.619758238756421</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>73334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59027</v>
+        <v>58508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90471</v>
+        <v>89702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1798264249764738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1447424498398313</v>
+        <v>0.1434711958635435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2218476273958679</v>
+        <v>0.2199619830057801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1699,19 +1699,19 @@
         <v>65463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50244</v>
+        <v>51305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80231</v>
+        <v>81472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.221435627267928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1699575072167311</v>
+        <v>0.1735456244780746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2713908236243853</v>
+        <v>0.2755887190704275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -1720,19 +1720,19 @@
         <v>138797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116984</v>
+        <v>119205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161924</v>
+        <v>161432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1973132817114644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1663046142233126</v>
+        <v>0.169461611453996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2301910656034953</v>
+        <v>0.2294912742318401</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>86954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70913</v>
+        <v>71042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105626</v>
+        <v>105161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2132248489477453</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1738892941643886</v>
+        <v>0.174206838540487</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2590107451534986</v>
+        <v>0.2578715561550286</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -1770,19 +1770,19 @@
         <v>68444</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53897</v>
+        <v>52286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83997</v>
+        <v>84297</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2315204649920789</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1823134975752191</v>
+        <v>0.1768643046094708</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.284129964288963</v>
+        <v>0.2851453249751294</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>146</v>
@@ -1791,19 +1791,19 @@
         <v>155398</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133372</v>
+        <v>133217</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179518</v>
+        <v>178416</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2209138407819234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.189600944471547</v>
+        <v>0.1893816210629202</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2552032351583143</v>
+        <v>0.2536355550680871</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>810007</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>465</v>
@@ -1916,19 +1916,19 @@
         <v>503080</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1233</v>
@@ -1937,19 +1937,19 @@
         <v>1313087</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>267240</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>239434</v>
+        <v>238738</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>303176</v>
+        <v>298992</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1922837252580313</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1722772927687312</v>
+        <v>0.171776257479993</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2181402377455117</v>
+        <v>0.2151299431834406</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>188</v>
@@ -1987,19 +1987,19 @@
         <v>204742</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>178590</v>
+        <v>177835</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>230615</v>
+        <v>231018</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2211164464912007</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1928732822431691</v>
+        <v>0.1920579658544087</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2490589983567557</v>
+        <v>0.2494937128371215</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>438</v>
@@ -2008,19 +2008,19 @@
         <v>471982</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>432499</v>
+        <v>431482</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>514061</v>
+        <v>513483</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2038123308150686</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1867628488158641</v>
+        <v>0.1863236682921159</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2219831909899737</v>
+        <v>0.2217333644599714</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>312573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>201</v>
@@ -2058,19 +2058,19 @@
         <v>218125</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>488</v>
@@ -2079,19 +2079,19 @@
         <v>530698</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>133264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117564</v>
+        <v>116291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148973</v>
+        <v>147740</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5522291508289412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4871677392701825</v>
+        <v>0.4818926198683475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6173236427666311</v>
+        <v>0.6122155821824948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -2444,19 +2444,19 @@
         <v>77289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64422</v>
+        <v>65680</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90689</v>
+        <v>89417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4706058609136593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3922607561750671</v>
+        <v>0.3999213509846694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5521976655254509</v>
+        <v>0.5444524626330246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -2465,19 +2465,19 @@
         <v>210553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190525</v>
+        <v>192376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230194</v>
+        <v>230458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5191750680481843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4697899114031571</v>
+        <v>0.474355314141315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5676043155535944</v>
+        <v>0.5682552323845818</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>54515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40572</v>
+        <v>41121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67799</v>
+        <v>69519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2259017076836167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1681245719526735</v>
+        <v>0.1704003952878957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2809503747779165</v>
+        <v>0.2880789285985983</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -2515,19 +2515,19 @@
         <v>36526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27020</v>
+        <v>26564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47050</v>
+        <v>47632</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.22240221811772</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1645236981279788</v>
+        <v>0.1617464638461594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2864876264102162</v>
+        <v>0.2900278046780091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -2536,19 +2536,19 @@
         <v>91040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73684</v>
+        <v>75481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108383</v>
+        <v>108963</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2244845580205536</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1816887940533962</v>
+        <v>0.1861182704034186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2672469290714092</v>
+        <v>0.2686767269617282</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>53542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41733</v>
+        <v>42163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68768</v>
+        <v>68227</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2218691414874421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1729371728839681</v>
+        <v>0.1747163057872095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2849651086181633</v>
+        <v>0.2827233210441422</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -2586,19 +2586,19 @@
         <v>50418</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39609</v>
+        <v>39100</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62557</v>
+        <v>61835</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3069919209686208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.241174408741132</v>
+        <v>0.2380787978147342</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3809080663569469</v>
+        <v>0.37651185420443</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>103</v>
@@ -2607,19 +2607,19 @@
         <v>103960</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88340</v>
+        <v>87658</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124490</v>
+        <v>123274</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2563403739312622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2178261089743194</v>
+        <v>0.2161431749834799</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.306963076979773</v>
+        <v>0.3039662706646769</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>223689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>202127</v>
+        <v>202597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>244092</v>
+        <v>244511</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5412976965311752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4891196485139798</v>
+        <v>0.4902585297539011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5906709021628573</v>
+        <v>0.5916828933120226</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -2732,19 +2732,19 @@
         <v>147557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130092</v>
+        <v>130775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>162299</v>
+        <v>164122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5409956890832017</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.476961796234599</v>
+        <v>0.4794676790657807</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5950432394891884</v>
+        <v>0.6017296286799575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>344</v>
@@ -2753,19 +2753,19 @@
         <v>371246</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345014</v>
+        <v>345166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>399881</v>
+        <v>396175</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5411776189318331</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5029373814569544</v>
+        <v>0.5031602938181799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5829200321933438</v>
+        <v>0.5775174481014012</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>105819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87731</v>
+        <v>87668</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124665</v>
+        <v>126872</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2560684720160433</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2122969088050171</v>
+        <v>0.21214491517984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3016716191141851</v>
+        <v>0.307014245372982</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -2803,19 +2803,19 @@
         <v>61033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47865</v>
+        <v>48362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74891</v>
+        <v>76177</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2237664725218657</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1754915140385388</v>
+        <v>0.1773124201290705</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2745754986911479</v>
+        <v>0.2792905590213508</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>151</v>
@@ -2824,19 +2824,19 @@
         <v>166852</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>145042</v>
+        <v>144280</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>190433</v>
+        <v>191055</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2432252571243692</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2114319001547776</v>
+        <v>0.2103209154231913</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2776006335823648</v>
+        <v>0.2785067241263694</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>83738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67778</v>
+        <v>68296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102535</v>
+        <v>101431</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2026338314527815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1640128417345047</v>
+        <v>0.1652670456969258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2481218256911482</v>
+        <v>0.2454503570730224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -2874,19 +2874,19 @@
         <v>64161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51884</v>
+        <v>51110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79471</v>
+        <v>79822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2352378383949326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1902230682483781</v>
+        <v>0.1873873712405189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2913669537865158</v>
+        <v>0.292654682262218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -2895,19 +2895,19 @@
         <v>147899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126576</v>
+        <v>126561</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169753</v>
+        <v>169525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2155971239437977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1845140539072389</v>
+        <v>0.1844917545166682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2474551597165397</v>
+        <v>0.2471224167747949</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>221657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>202116</v>
+        <v>200924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>240556</v>
+        <v>240054</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6110124937180722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.557145955189744</v>
+        <v>0.5538600272292235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6631092813255612</v>
+        <v>0.6617251485799367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>170</v>
@@ -3020,19 +3020,19 @@
         <v>173920</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>158364</v>
+        <v>157057</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>189605</v>
+        <v>188502</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.645287110873538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5875708016230118</v>
+        <v>0.5827199541950443</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7034826499709057</v>
+        <v>0.6993903300453793</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>371</v>
@@ -3041,19 +3041,19 @@
         <v>395577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>370163</v>
+        <v>370230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>419409</v>
+        <v>419254</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6256225298114942</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5854290421322466</v>
+        <v>0.585535323420492</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6633131481883576</v>
+        <v>0.6630682439109347</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>73807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58997</v>
+        <v>58505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91993</v>
+        <v>92191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2034535655420811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1626283751975321</v>
+        <v>0.1612728691328865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2535862391554088</v>
+        <v>0.254130806784489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3091,19 +3091,19 @@
         <v>54724</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40666</v>
+        <v>41491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67517</v>
+        <v>67848</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.203040286478796</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1508799654270597</v>
+        <v>0.153940763634722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2505053342694473</v>
+        <v>0.2517345296461122</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -3112,19 +3112,19 @@
         <v>128531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107774</v>
+        <v>108648</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150790</v>
+        <v>151607</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2032773995471741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1704484975472065</v>
+        <v>0.171831156788311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.238480061624703</v>
+        <v>0.2397730183580835</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>67306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53623</v>
+        <v>51019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84551</v>
+        <v>84118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1855339407398466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1478142221640796</v>
+        <v>0.1406369050507278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2330714266004112</v>
+        <v>0.2318771463284601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -3162,19 +3162,19 @@
         <v>40879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30045</v>
+        <v>29499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53303</v>
+        <v>53975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.151672602647666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1114747560021576</v>
+        <v>0.1094485228096923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1977689157173468</v>
+        <v>0.2002613045147553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -3183,19 +3183,19 @@
         <v>108186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90029</v>
+        <v>90150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128221</v>
+        <v>130319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1711000706413317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1423842752708433</v>
+        <v>0.1425754630013306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2027867125394875</v>
+        <v>0.2061053003318855</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>199321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>180151</v>
+        <v>179425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>219867</v>
+        <v>218330</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4995489048573384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4515046297484071</v>
+        <v>0.4496861887628088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5510447199047822</v>
+        <v>0.5471917696182965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -3308,19 +3308,19 @@
         <v>170488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151459</v>
+        <v>152195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>190409</v>
+        <v>188332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5238140172924414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4653492740578451</v>
+        <v>0.4676100218872526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5850195924554316</v>
+        <v>0.5786406077081874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>360</v>
@@ -3329,19 +3329,19 @@
         <v>369808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>345603</v>
+        <v>341970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396234</v>
+        <v>397538</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5104501358502411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4770389438395198</v>
+        <v>0.47202488973144</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5469250697721835</v>
+        <v>0.5487251348181146</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>86515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71711</v>
+        <v>69832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104324</v>
+        <v>101583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2168281326411959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1797256031792036</v>
+        <v>0.1750170257324531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2614637325921471</v>
+        <v>0.2545941456344428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -3379,19 +3379,19 @@
         <v>72869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58062</v>
+        <v>58546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88148</v>
+        <v>89117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2238844616076562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1783922397511439</v>
+        <v>0.1798780846190358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2708289525369245</v>
+        <v>0.273805676890951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -3400,19 +3400,19 @@
         <v>159383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137498</v>
+        <v>138210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180917</v>
+        <v>182948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2199982260100613</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1897901547737433</v>
+        <v>0.190772319692737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2497213489954387</v>
+        <v>0.2525252666875133</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>113166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95172</v>
+        <v>95916</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>131991</v>
+        <v>133337</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2836229625014658</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2385264493263813</v>
+        <v>0.2403898928739282</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3308025933491265</v>
+        <v>0.334177081526873</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -3450,19 +3450,19 @@
         <v>82118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65732</v>
+        <v>65885</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97781</v>
+        <v>97810</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2523015210999024</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2019591310770445</v>
+        <v>0.202428050013091</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.300426225635328</v>
+        <v>0.300515222283965</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>185</v>
@@ -3471,19 +3471,19 @@
         <v>195283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>172083</v>
+        <v>173646</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>219280</v>
+        <v>221800</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2695516381396976</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2375281471100014</v>
+        <v>0.23968571209791</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3026741723893161</v>
+        <v>0.3061530465623807</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>777931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>556</v>
@@ -3596,19 +3596,19 @@
         <v>569254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -3617,19 +3617,19 @@
         <v>1347184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>320655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>288182</v>
+        <v>288422</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>354836</v>
+        <v>353110</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2263976476487986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2034701630131225</v>
+        <v>0.2036393569267508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.250530997247049</v>
+        <v>0.2493121224393628</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>219</v>
@@ -3667,19 +3667,19 @@
         <v>225151</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>198032</v>
+        <v>198252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>253423</v>
+        <v>252087</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2181734870270256</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1918948029945922</v>
+        <v>0.1921084294846432</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2455694577608363</v>
+        <v>0.2442745653227865</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>511</v>
@@ -3688,19 +3688,19 @@
         <v>545806</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>505932</v>
+        <v>506133</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>597169</v>
+        <v>585149</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2229311121111</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2066446508964417</v>
+        <v>0.2067269119472973</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2439100201986303</v>
+        <v>0.2390003754172252</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>317751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>233</v>
@@ -3738,19 +3738,19 @@
         <v>237576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>531</v>
@@ -3759,19 +3759,19 @@
         <v>555327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>45744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34678</v>
+        <v>32494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58561</v>
+        <v>57813</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4681572749257505</v>
+        <v>0.4681572749257507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3548991909169609</v>
+        <v>0.3325521978991234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5993257351988533</v>
+        <v>0.5916750447576214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4124,19 +4124,19 @@
         <v>36908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28081</v>
+        <v>28653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45456</v>
+        <v>45493</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4812754739007635</v>
+        <v>0.4812754739007636</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3661759003787856</v>
+        <v>0.3736338942058122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5927522387769024</v>
+        <v>0.5932274282853582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -4145,19 +4145,19 @@
         <v>82652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66640</v>
+        <v>67791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96789</v>
+        <v>98162</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4739256648965854</v>
+        <v>0.4739256648965853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3821145279843058</v>
+        <v>0.3887170681629872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5549892994520988</v>
+        <v>0.5628599328040531</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>23096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14029</v>
+        <v>14299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33852</v>
+        <v>33434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2363664489535754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1435808798247255</v>
+        <v>0.1463348237218878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3464509012213454</v>
+        <v>0.3421735519221208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -4195,19 +4195,19 @@
         <v>19033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12606</v>
+        <v>12681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26772</v>
+        <v>26710</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2481959308349169</v>
+        <v>0.248195930834917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1643878108319579</v>
+        <v>0.1653584208887603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3491059082805866</v>
+        <v>0.3482963845725534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -4216,19 +4216,19 @@
         <v>42129</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30431</v>
+        <v>30992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55730</v>
+        <v>56370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2415681587900002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.174490341871347</v>
+        <v>0.177709036077674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3195551465484712</v>
+        <v>0.3232262249843734</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>28871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18706</v>
+        <v>18994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40600</v>
+        <v>42212</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.295476276120674</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1914374958364002</v>
+        <v>0.1943910443721547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4155064777950452</v>
+        <v>0.4320124478764883</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -4266,19 +4266,19 @@
         <v>20746</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14210</v>
+        <v>14216</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28687</v>
+        <v>28032</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2705285952643193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1853002910199076</v>
+        <v>0.1853776101211564</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3740771203977654</v>
+        <v>0.3655404285933198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -4287,19 +4287,19 @@
         <v>49617</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37895</v>
+        <v>36692</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64241</v>
+        <v>63233</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2845061763134146</v>
+        <v>0.2845061763134145</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2172880950712729</v>
+        <v>0.2103946711580187</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3683610165089446</v>
+        <v>0.3625784231278075</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>70567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54861</v>
+        <v>57049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84395</v>
+        <v>84852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4227433805205651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3286558220119782</v>
+        <v>0.3417627889878915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.505582302773219</v>
+        <v>0.5083235803283001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -4412,19 +4412,19 @@
         <v>60259</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50989</v>
+        <v>50366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70570</v>
+        <v>70109</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.490239236049151</v>
+        <v>0.4902392360491511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4148283773093193</v>
+        <v>0.4097521993302997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.574127436933231</v>
+        <v>0.5703797879587587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>139</v>
@@ -4433,19 +4433,19 @@
         <v>130826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113215</v>
+        <v>113722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>149580</v>
+        <v>149520</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4513670024127107</v>
+        <v>0.4513670024127106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3906079711983858</v>
+        <v>0.3923584552263405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.516072426697889</v>
+        <v>0.5158653513948273</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>50684</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38294</v>
+        <v>37669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65800</v>
+        <v>64279</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.30363023361575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2294047615256098</v>
+        <v>0.2256646164643058</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3941859178082556</v>
+        <v>0.3850763237929848</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -4483,19 +4483,19 @@
         <v>34200</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25746</v>
+        <v>25552</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44689</v>
+        <v>43048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2782347507408645</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2094554620863567</v>
+        <v>0.2078799596456139</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3635683636345255</v>
+        <v>0.3502187959765939</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>86</v>
@@ -4504,19 +4504,19 @@
         <v>84884</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>68245</v>
+        <v>68568</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>102261</v>
+        <v>102563</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2928605249590263</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2354540297171834</v>
+        <v>0.2365678132186888</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3528163829059519</v>
+        <v>0.3538576574809681</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>45675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34253</v>
+        <v>31894</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60758</v>
+        <v>59610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2736263858636849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2051968966123036</v>
+        <v>0.1910672167505548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3639811848434824</v>
+        <v>0.3571022785980231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -4554,19 +4554,19 @@
         <v>28458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20529</v>
+        <v>20567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37640</v>
+        <v>38090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2315260132099845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1670153538454082</v>
+        <v>0.1673283476494888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.306222276753858</v>
+        <v>0.3098830332584277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -4575,19 +4575,19 @@
         <v>74134</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58595</v>
+        <v>58210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90995</v>
+        <v>91725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.255772472628263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2021601804588737</v>
+        <v>0.2008316141382986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3139468710544836</v>
+        <v>0.3164629145050415</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>38675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27813</v>
+        <v>27662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50343</v>
+        <v>49356</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4192997716094218</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3015333304042985</v>
+        <v>0.2999061752668694</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.54580113274612</v>
+        <v>0.5351002861974844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -4700,19 +4700,19 @@
         <v>44033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35330</v>
+        <v>35911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52463</v>
+        <v>52428</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4842813704755096</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3885587926071358</v>
+        <v>0.3949507371364164</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5769931988171142</v>
+        <v>0.5766070454206794</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -4721,19 +4721,19 @@
         <v>82708</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>68142</v>
+        <v>67905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97382</v>
+        <v>96805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4515579302165088</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3720308060677366</v>
+        <v>0.3707375670312702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5316703656652064</v>
+        <v>0.5285207865055394</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>20522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11747</v>
+        <v>12512</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31866</v>
+        <v>32045</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2224892046009242</v>
+        <v>0.2224892046009243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1273555494631329</v>
+        <v>0.1356486621190134</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3454822100663506</v>
+        <v>0.3474240738723371</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4771,19 +4771,19 @@
         <v>20056</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13755</v>
+        <v>13719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27642</v>
+        <v>28280</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2205724796702323</v>
+        <v>0.2205724796702324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1512779534790368</v>
+        <v>0.1508828114243133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3040091273852795</v>
+        <v>0.3110273375358109</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -4792,19 +4792,19 @@
         <v>40577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30195</v>
+        <v>30082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53655</v>
+        <v>52720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2215377042085157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1648539085380579</v>
+        <v>0.1642348640613877</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2929373887846274</v>
+        <v>0.2878315351812802</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>33040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22609</v>
+        <v>22631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46681</v>
+        <v>47199</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3582110237896538</v>
+        <v>0.3582110237896539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2451138492305445</v>
+        <v>0.2453618110972209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5060936356498728</v>
+        <v>0.5117108804799666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -4842,19 +4842,19 @@
         <v>26836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19550</v>
+        <v>19020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36606</v>
+        <v>35612</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.295146149854258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2150109291124986</v>
+        <v>0.2091851558833492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4025941177298363</v>
+        <v>0.3916587352874543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -4863,19 +4863,19 @@
         <v>59876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47152</v>
+        <v>46521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74979</v>
+        <v>74798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3269043655749757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2574317103344985</v>
+        <v>0.2539872860935438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4093563345102817</v>
+        <v>0.4083692758377704</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>32683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22630</v>
+        <v>23109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43878</v>
+        <v>43116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2828865913401006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1958763733426361</v>
+        <v>0.2000200382182915</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3797869889335235</v>
+        <v>0.3731864935185267</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -4988,19 +4988,19 @@
         <v>35791</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27325</v>
+        <v>27665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44604</v>
+        <v>44322</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3829415693524974</v>
+        <v>0.3829415693524973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.292363106019397</v>
+        <v>0.2960014584941061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4772333073835824</v>
+        <v>0.4742119972294941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -5009,19 +5009,19 @@
         <v>68474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54873</v>
+        <v>56892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81653</v>
+        <v>83318</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3276311439550219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2625556683337144</v>
+        <v>0.2722135319425905</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3906916587405437</v>
+        <v>0.3986587007311207</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>36006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26324</v>
+        <v>26352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47913</v>
+        <v>47849</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3116442266220782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2278503668001609</v>
+        <v>0.2280887499823615</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4147118437399718</v>
+        <v>0.4141561162307814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5059,19 +5059,19 @@
         <v>18902</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12900</v>
+        <v>12819</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26279</v>
+        <v>26432</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2022406444050012</v>
+        <v>0.2022406444050011</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1380220168188598</v>
+        <v>0.1371583749975558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2811685540350468</v>
+        <v>0.2828010131241283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -5080,19 +5080,19 @@
         <v>54907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42850</v>
+        <v>42282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68156</v>
+        <v>69107</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2627189813417648</v>
+        <v>0.2627189813417649</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2050258032892059</v>
+        <v>0.2023082018311483</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3261120839801929</v>
+        <v>0.3306587148144587</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>46845</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36121</v>
+        <v>36315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58340</v>
+        <v>58953</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4054691820378212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3126424665020396</v>
+        <v>0.3143221229004057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5049578425904109</v>
+        <v>0.5102682932353052</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -5130,19 +5130,19 @@
         <v>38771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29963</v>
+        <v>29649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47116</v>
+        <v>46605</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4148177862425017</v>
+        <v>0.4148177862425015</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3205804886992044</v>
+        <v>0.3172261005241105</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5041101986516426</v>
+        <v>0.4986391273760382</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>92</v>
@@ -5151,19 +5151,19 @@
         <v>85616</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>72315</v>
+        <v>72650</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99758</v>
+        <v>100645</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4096498747032133</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3460088240893608</v>
+        <v>0.3476110100076845</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4773177360475478</v>
+        <v>0.4815615340108123</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>187669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -5276,19 +5276,19 @@
         <v>176990</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>378</v>
@@ -5297,19 +5297,19 @@
         <v>364659</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>130307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>106268</v>
+        <v>108651</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>152577</v>
+        <v>151393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2758349666804719</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2249487780092722</v>
+        <v>0.2299931013645912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3229782005956843</v>
+        <v>0.3204700733202961</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>125</v>
@@ -5347,19 +5347,19 @@
         <v>92191</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77963</v>
+        <v>77525</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107854</v>
+        <v>107895</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2400849524047448</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2030325215346187</v>
+        <v>0.2018920955390861</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2808768880792885</v>
+        <v>0.2809833810782837</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>234</v>
@@ -5368,19 +5368,19 @@
         <v>222497</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>196100</v>
+        <v>196532</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>250325</v>
+        <v>250504</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2598053920486217</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2289812945751445</v>
+        <v>0.2294859195333086</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2922992721052106</v>
+        <v>0.2925080868746823</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>154432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -5418,19 +5418,19 @@
         <v>114811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>269</v>
@@ -5439,19 +5439,19 @@
         <v>269243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="23">
